--- a/xlsx/波莫纳 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/波莫纳 (加利福尼亚州)_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_波莫纳 (加利福尼亚州)</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%8E%BF</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%BB%A9</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%B2%B1%E7%88%BE</t>
   </si>
   <si>
-    <t>格蘭岱爾</t>
+    <t>格兰岱尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E5%88%A9%E5%A1%94</t>
   </si>
   <si>
-    <t>聖塔克拉利塔</t>
+    <t>圣塔克拉利塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8E%AB%E7%BA%B3%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
